--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin Fouco\Documents\G3\SupplyChain\Ocyo_étudedecas\G_ROS_Ocyo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9055A3-EE14-4B00-8002-AA5409ED4C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Prévisions de vente" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Fournisseur" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Coût journalier machine" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Capacité camion" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Coût d’affrètement" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Emplacement Usine" sheetId="6" r:id="rId9"/>
+    <sheet name="Prévisions de vente" sheetId="1" r:id="rId1"/>
+    <sheet name="Fournisseur" sheetId="2" r:id="rId2"/>
+    <sheet name="Coût journalier machine" sheetId="3" r:id="rId3"/>
+    <sheet name="Capacité camion" sheetId="4" r:id="rId4"/>
+    <sheet name="Coût d’affrètement" sheetId="5" r:id="rId5"/>
+    <sheet name="Emplacement Usine" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>Sites</t>
   </si>
@@ -67,15 +76,6 @@
   </si>
   <si>
     <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Fourniture</t>
-  </si>
-  <si>
-    <t>Chaque fournisseur a une capacité de production limitée, de telle manière qu'il est obligatoire de s'approvisionner chez deux fournisseurs pour chacune des matières premières. Les capacités exactes seront transmises dès que possible.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Tissus</t>
@@ -171,15 +171,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -190,56 +191,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -429,20 +417,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,142 +441,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>110.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>340.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>260.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>270.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>350.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>190.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,348 +589,492 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>524</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1">
+        <v>127</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1">
-        <v>524.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1">
-        <v>127.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B6" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B8" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>500</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1">
-        <v>333.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B12" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
@@ -986,900 +1124,901 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1152.0</v>
+        <v>1152</v>
       </c>
       <c r="D2" s="1">
-        <v>1463.0</v>
+        <v>1463</v>
       </c>
       <c r="E2" s="1">
-        <v>2082.0</v>
+        <v>2082</v>
       </c>
       <c r="F2" s="1">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="G2" s="1">
-        <v>1783.0</v>
+        <v>1783</v>
       </c>
       <c r="H2" s="1">
-        <v>1873.0</v>
+        <v>1873</v>
       </c>
       <c r="I2" s="1">
-        <v>2385.0</v>
+        <v>2385</v>
       </c>
       <c r="J2" s="1">
-        <v>1858.0</v>
+        <v>1858</v>
       </c>
       <c r="K2" s="1">
-        <v>2440.0</v>
+        <v>2440</v>
       </c>
       <c r="L2" s="1">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="M2" s="1">
-        <v>659.0</v>
+        <v>659</v>
       </c>
       <c r="N2" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="O2" s="1">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="P2" s="1">
-        <v>742.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1152.0</v>
+        <v>1152</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="E3" s="1">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="F3" s="1">
-        <v>1069.0</v>
+        <v>1069</v>
       </c>
       <c r="G3" s="1">
-        <v>1237.0</v>
+        <v>1237</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.0</v>
+        <v>1272</v>
       </c>
       <c r="I3" s="1">
-        <v>1838.0</v>
+        <v>1838</v>
       </c>
       <c r="J3" s="1">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="K3" s="1">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="L3" s="1">
-        <v>923.0</v>
+        <v>923</v>
       </c>
       <c r="M3" s="1">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="N3" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="O3" s="1">
-        <v>802.0</v>
+        <v>802</v>
       </c>
       <c r="P3" s="1">
-        <v>678.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1463.0</v>
+        <v>1463</v>
       </c>
       <c r="C4" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="F4" s="1">
-        <v>1073.0</v>
+        <v>1073</v>
       </c>
       <c r="G4" s="1">
-        <v>1246.0</v>
+        <v>1246</v>
       </c>
       <c r="H4" s="1">
-        <v>1251.0</v>
+        <v>1251</v>
       </c>
       <c r="I4" s="1">
-        <v>1847.0</v>
+        <v>1847</v>
       </c>
       <c r="J4" s="1">
-        <v>1062.0</v>
+        <v>1062</v>
       </c>
       <c r="K4" s="1">
-        <v>1334.0</v>
+        <v>1334</v>
       </c>
       <c r="L4" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="M4" s="1">
-        <v>2111.0</v>
+        <v>2111</v>
       </c>
       <c r="N4" s="1">
-        <v>838.0</v>
+        <v>838</v>
       </c>
       <c r="O4" s="1">
-        <v>812.0</v>
+        <v>812</v>
       </c>
       <c r="P4" s="1">
-        <v>855.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2082.0</v>
+        <v>2082</v>
       </c>
       <c r="C5" s="1">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="D5" s="1">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>792.0</v>
+        <v>792</v>
       </c>
       <c r="G5" s="1">
-        <v>1107.0</v>
+        <v>1107</v>
       </c>
       <c r="H5" s="1">
-        <v>848.0</v>
+        <v>848</v>
       </c>
       <c r="I5" s="1">
-        <v>1709.0</v>
+        <v>1709</v>
       </c>
       <c r="J5" s="1">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="K5" s="1">
-        <v>597.0</v>
+        <v>597</v>
       </c>
       <c r="L5" s="1">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="M5" s="1">
-        <v>2710.0</v>
+        <v>2710</v>
       </c>
       <c r="N5" s="1">
-        <v>1457.0</v>
+        <v>1457</v>
       </c>
       <c r="O5" s="1">
-        <v>837.0</v>
+        <v>837</v>
       </c>
       <c r="P5" s="1">
-        <v>1273.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="C6" s="1">
-        <v>1069.0</v>
+        <v>1069</v>
       </c>
       <c r="D6" s="1">
-        <v>1073.0</v>
+        <v>1073</v>
       </c>
       <c r="E6" s="1">
-        <v>792.0</v>
+        <v>792</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="H6" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="I6" s="1">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="J6" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="K6" s="1">
-        <v>790.0</v>
+        <v>790</v>
       </c>
       <c r="L6" s="1">
-        <v>1734.0</v>
+        <v>1734</v>
       </c>
       <c r="M6" s="1">
-        <v>2207.0</v>
+        <v>2207</v>
       </c>
       <c r="N6" s="1">
-        <v>1402.0</v>
+        <v>1402</v>
       </c>
       <c r="O6" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="P6" s="1">
-        <v>928.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1783.0</v>
+        <v>1783</v>
       </c>
       <c r="C7" s="1">
-        <v>1237.0</v>
+        <v>1237</v>
       </c>
       <c r="D7" s="1">
-        <v>1246.0</v>
+        <v>1246</v>
       </c>
       <c r="E7" s="1">
-        <v>1107.0</v>
+        <v>1107</v>
       </c>
       <c r="F7" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="I7" s="1">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="J7" s="1">
-        <v>546.0</v>
+        <v>546</v>
       </c>
       <c r="K7" s="1">
-        <v>1076.0</v>
+        <v>1076</v>
       </c>
       <c r="L7" s="1">
-        <v>1908.0</v>
+        <v>1908</v>
       </c>
       <c r="M7" s="1">
-        <v>2314.0</v>
+        <v>2314</v>
       </c>
       <c r="N7" s="1">
-        <v>1576.0</v>
+        <v>1576</v>
       </c>
       <c r="O7" s="1">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="P7" s="1">
-        <v>1037.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>1873.0</v>
+        <v>1873</v>
       </c>
       <c r="C8" s="1">
-        <v>1272.0</v>
+        <v>1272</v>
       </c>
       <c r="D8" s="1">
-        <v>1251.0</v>
+        <v>1251</v>
       </c>
       <c r="E8" s="1">
-        <v>848.0</v>
+        <v>848</v>
       </c>
       <c r="F8" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="G8" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1102.0</v>
+        <v>1102</v>
       </c>
       <c r="J8" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="K8" s="1">
-        <v>685.0</v>
+        <v>685</v>
       </c>
       <c r="L8" s="1">
-        <v>1912.0</v>
+        <v>1912</v>
       </c>
       <c r="M8" s="1">
-        <v>2405.0</v>
+        <v>2405</v>
       </c>
       <c r="N8" s="1">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="O8" s="1">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="P8" s="1">
-        <v>1126.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>2385.0</v>
+        <v>2385</v>
       </c>
       <c r="C9" s="1">
-        <v>1838.0</v>
+        <v>1838</v>
       </c>
       <c r="D9" s="1">
-        <v>1847.0</v>
+        <v>1847</v>
       </c>
       <c r="E9" s="1">
-        <v>1709.0</v>
+        <v>1709</v>
       </c>
       <c r="F9" s="1">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="G9" s="1">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="H9" s="1">
-        <v>1102.0</v>
+        <v>1102</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1147.0</v>
+        <v>1147</v>
       </c>
       <c r="K9" s="1">
-        <v>1677.0</v>
+        <v>1677</v>
       </c>
       <c r="L9" s="1">
-        <v>2508.0</v>
+        <v>2508</v>
       </c>
       <c r="M9" s="1">
-        <v>2915.0</v>
+        <v>2915</v>
       </c>
       <c r="N9" s="1">
-        <v>2178.0</v>
+        <v>2178</v>
       </c>
       <c r="O9" s="1">
-        <v>1034.0</v>
+        <v>1034</v>
       </c>
       <c r="P9" s="1">
-        <v>1638.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1858.0</v>
+        <v>1858</v>
       </c>
       <c r="C10" s="1">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="D10" s="1">
-        <v>1062.0</v>
+        <v>1062</v>
       </c>
       <c r="E10" s="1">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="F10" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="G10" s="1">
-        <v>546.0</v>
+        <v>546</v>
       </c>
       <c r="H10" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="I10" s="1">
-        <v>1147.0</v>
+        <v>1147</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>587.0</v>
+        <v>587</v>
       </c>
       <c r="L10" s="1">
-        <v>1477.0</v>
+        <v>1477</v>
       </c>
       <c r="M10" s="1">
-        <v>2388.0</v>
+        <v>2388</v>
       </c>
       <c r="N10" s="1">
-        <v>1391.0</v>
+        <v>1391</v>
       </c>
       <c r="O10" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="P10" s="1">
-        <v>1111.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>2440.0</v>
+        <v>2440</v>
       </c>
       <c r="C11" s="1">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="D11" s="1">
-        <v>1334.0</v>
+        <v>1334</v>
       </c>
       <c r="E11" s="1">
-        <v>597.0</v>
+        <v>597</v>
       </c>
       <c r="F11" s="1">
-        <v>790.0</v>
+        <v>790</v>
       </c>
       <c r="G11" s="1">
-        <v>1076.0</v>
+        <v>1076</v>
       </c>
       <c r="H11" s="1">
-        <v>685.0</v>
+        <v>685</v>
       </c>
       <c r="I11" s="1">
-        <v>1677.0</v>
+        <v>1677</v>
       </c>
       <c r="J11" s="1">
-        <v>587.0</v>
+        <v>587</v>
       </c>
       <c r="K11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>1561.0</v>
+        <v>1561</v>
       </c>
       <c r="M11" s="1">
-        <v>2970.0</v>
+        <v>2970</v>
       </c>
       <c r="N11" s="1">
-        <v>1935.0</v>
+        <v>1935</v>
       </c>
       <c r="O11" s="1">
-        <v>1089.0</v>
+        <v>1089</v>
       </c>
       <c r="P11" s="1">
-        <v>1693.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="C12" s="1">
-        <v>923.0</v>
+        <v>923</v>
       </c>
       <c r="D12" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="E12" s="1">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="F12" s="1">
-        <v>1734.0</v>
+        <v>1734</v>
       </c>
       <c r="G12" s="1">
-        <v>1908.0</v>
+        <v>1908</v>
       </c>
       <c r="H12" s="1">
-        <v>1912.0</v>
+        <v>1912</v>
       </c>
       <c r="I12" s="1">
-        <v>2508.0</v>
+        <v>2508</v>
       </c>
       <c r="J12" s="1">
-        <v>1477.0</v>
+        <v>1477</v>
       </c>
       <c r="K12" s="1">
-        <v>1561.0</v>
+        <v>1561</v>
       </c>
       <c r="L12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="N12" s="1">
-        <v>1407.0</v>
+        <v>1407</v>
       </c>
       <c r="O12" s="1">
-        <v>1473.0</v>
+        <v>1473</v>
       </c>
       <c r="P12" s="1">
-        <v>1558.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>659.0</v>
+        <v>659</v>
       </c>
       <c r="C13" s="1">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="D13" s="1">
-        <v>2111.0</v>
+        <v>2111</v>
       </c>
       <c r="E13" s="1">
-        <v>2710.0</v>
+        <v>2710</v>
       </c>
       <c r="F13" s="1">
-        <v>2207.0</v>
+        <v>2207</v>
       </c>
       <c r="G13" s="1">
-        <v>2314.0</v>
+        <v>2314</v>
       </c>
       <c r="H13" s="1">
-        <v>2405.0</v>
+        <v>2405</v>
       </c>
       <c r="I13" s="1">
-        <v>2915.0</v>
+        <v>2915</v>
       </c>
       <c r="J13" s="1">
-        <v>2388.0</v>
+        <v>2388</v>
       </c>
       <c r="K13" s="1">
-        <v>2970.0</v>
+        <v>2970</v>
       </c>
       <c r="L13" s="1">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>1298.0</v>
+        <v>1298</v>
       </c>
       <c r="O13" s="1">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="P13" s="1">
-        <v>1273.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="C14" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="D14" s="1">
-        <v>838.0</v>
+        <v>838</v>
       </c>
       <c r="E14" s="1">
-        <v>1457.0</v>
+        <v>1457</v>
       </c>
       <c r="F14" s="1">
-        <v>1402.0</v>
+        <v>1402</v>
       </c>
       <c r="G14" s="1">
-        <v>1576.0</v>
+        <v>1576</v>
       </c>
       <c r="H14" s="1">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="I14" s="1">
-        <v>2178.0</v>
+        <v>2178</v>
       </c>
       <c r="J14" s="1">
-        <v>1391.0</v>
+        <v>1391</v>
       </c>
       <c r="K14" s="1">
-        <v>1935.0</v>
+        <v>1935</v>
       </c>
       <c r="L14" s="1">
-        <v>1407.0</v>
+        <v>1407</v>
       </c>
       <c r="M14" s="1">
-        <v>1298.0</v>
+        <v>1298</v>
       </c>
       <c r="N14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>1141.0</v>
+        <v>1141</v>
       </c>
       <c r="P14" s="1">
-        <v>668.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="C15" s="1">
-        <v>802.0</v>
+        <v>802</v>
       </c>
       <c r="D15" s="1">
-        <v>812.0</v>
+        <v>812</v>
       </c>
       <c r="E15" s="1">
-        <v>837.0</v>
+        <v>837</v>
       </c>
       <c r="F15" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="G15" s="1">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="H15" s="1">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="I15" s="1">
-        <v>1034.0</v>
+        <v>1034</v>
       </c>
       <c r="J15" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="K15" s="1">
-        <v>1089.0</v>
+        <v>1089</v>
       </c>
       <c r="L15" s="1">
-        <v>1473.0</v>
+        <v>1473</v>
       </c>
       <c r="M15" s="1">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="N15" s="1">
-        <v>1141.0</v>
+        <v>1141</v>
       </c>
       <c r="O15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>603.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>742.0</v>
+        <v>742</v>
       </c>
       <c r="C16" s="1">
-        <v>678.0</v>
+        <v>678</v>
       </c>
       <c r="D16" s="1">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="E16" s="1">
-        <v>1273.0</v>
+        <v>1273</v>
       </c>
       <c r="F16" s="1">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="G16" s="1">
-        <v>1037.0</v>
+        <v>1037</v>
       </c>
       <c r="H16" s="1">
-        <v>1126.0</v>
+        <v>1126</v>
       </c>
       <c r="I16" s="1">
-        <v>1638.0</v>
+        <v>1638</v>
       </c>
       <c r="J16" s="1">
-        <v>1111.0</v>
+        <v>1111</v>
       </c>
       <c r="K16" s="1">
-        <v>1693.0</v>
+        <v>1693</v>
       </c>
       <c r="L16" s="1">
-        <v>1558.0</v>
+        <v>1558</v>
       </c>
       <c r="M16" s="1">
-        <v>1273.0</v>
+        <v>1273</v>
       </c>
       <c r="N16" s="1">
-        <v>668.0</v>
+        <v>668</v>
       </c>
       <c r="O16" s="1">
-        <v>603.0</v>
+        <v>603</v>
       </c>
       <c r="P16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>